--- a/Files/Suppliers.xlsx
+++ b/Files/Suppliers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="192">
   <si>
     <t>SName</t>
   </si>
@@ -213,7 +213,385 @@
     <t>Брянская 9</t>
   </si>
   <si>
-    <t>Синапсис</t>
+    <t>﻿Синапсис</t>
+  </si>
+  <si>
+    <t>ИП Кахраманов Э.Б.</t>
+  </si>
+  <si>
+    <t>Тюмень</t>
+  </si>
+  <si>
+    <t>Бугурусланская 40</t>
+  </si>
+  <si>
+    <t>ГК "ФизТех"</t>
+  </si>
+  <si>
+    <t>Иркутск</t>
+  </si>
+  <si>
+    <t>Валдайская 26</t>
+  </si>
+  <si>
+    <t>ИП Лебедева И.С.</t>
+  </si>
+  <si>
+    <t>Владивосток</t>
+  </si>
+  <si>
+    <t>Валовая 5</t>
+  </si>
+  <si>
+    <t>ООО "Эльтадор-М"</t>
+  </si>
+  <si>
+    <t>Ярославль</t>
+  </si>
+  <si>
+    <t>Варненская 33</t>
+  </si>
+  <si>
+    <t>ООО "Самоходов"</t>
+  </si>
+  <si>
+    <t>Васенко 27</t>
+  </si>
+  <si>
+    <t>Русинтек</t>
+  </si>
+  <si>
+    <t>Василевского 10</t>
+  </si>
+  <si>
+    <t>Зет-Стоун</t>
+  </si>
+  <si>
+    <t>Ватутина 24</t>
+  </si>
+  <si>
+    <t>Вахтангова 14</t>
+  </si>
+  <si>
+    <t>Виллинская 23</t>
+  </si>
+  <si>
+    <t>Винницкая 17</t>
+  </si>
+  <si>
+    <t>Витебская 29</t>
+  </si>
+  <si>
+    <t>Восход 50</t>
+  </si>
+  <si>
+    <t>Выборгская 36</t>
+  </si>
+  <si>
+    <t>Вязовая 12</t>
+  </si>
+  <si>
+    <t>Вязовой 14</t>
+  </si>
+  <si>
+    <t>Гагарина 25</t>
+  </si>
+  <si>
+    <t>Гвардейская 22</t>
+  </si>
+  <si>
+    <t>Генераторный 30</t>
+  </si>
+  <si>
+    <t>Героев Танкограда 43</t>
+  </si>
+  <si>
+    <t>Героическая 18</t>
+  </si>
+  <si>
+    <t>Герцена 10</t>
+  </si>
+  <si>
+    <t>Гидрострой 23</t>
+  </si>
+  <si>
+    <t>Грибоедова 45</t>
+  </si>
+  <si>
+    <t>Гродненская 37</t>
+  </si>
+  <si>
+    <t>Грозненская 24</t>
+  </si>
+  <si>
+    <t>Гусеничный 18</t>
+  </si>
+  <si>
+    <t>Гюго 16</t>
+  </si>
+  <si>
+    <t>Долинская 3</t>
+  </si>
+  <si>
+    <t>Достоевского 14</t>
+  </si>
+  <si>
+    <t>Дружбы 20</t>
+  </si>
+  <si>
+    <t>Евтеева 12</t>
+  </si>
+  <si>
+    <t>Елькина 26</t>
+  </si>
+  <si>
+    <t>Еманжелинская 42</t>
+  </si>
+  <si>
+    <t>Ереванская 26</t>
+  </si>
+  <si>
+    <t>Железная 20</t>
+  </si>
+  <si>
+    <t>Железноводская 20</t>
+  </si>
+  <si>
+    <t>Железнодорожная 11</t>
+  </si>
+  <si>
+    <t>Животноводческая 11</t>
+  </si>
+  <si>
+    <t>Жигулевская 40</t>
+  </si>
+  <si>
+    <t>Житомирская 12</t>
+  </si>
+  <si>
+    <t>Жукова 27</t>
+  </si>
+  <si>
+    <t>Жуковского 23</t>
+  </si>
+  <si>
+    <t>Заболотная 9</t>
+  </si>
+  <si>
+    <t>Завалишина 23</t>
+  </si>
+  <si>
+    <t>Заводская 32</t>
+  </si>
+  <si>
+    <t>Запорожская 9</t>
+  </si>
+  <si>
+    <t>Заслонова 12</t>
+  </si>
+  <si>
+    <t>Захаренко 25</t>
+  </si>
+  <si>
+    <t>Златоустовская 45</t>
+  </si>
+  <si>
+    <t>Знаменская 47</t>
+  </si>
+  <si>
+    <t>Зыкова 21</t>
+  </si>
+  <si>
+    <t>Ижевская 45</t>
+  </si>
+  <si>
+    <t>Ильича 17</t>
+  </si>
+  <si>
+    <t>Инженерная 1</t>
+  </si>
+  <si>
+    <t>Иртышская 36</t>
+  </si>
+  <si>
+    <t>Искусств 21</t>
+  </si>
+  <si>
+    <t>Кавказская 20</t>
+  </si>
+  <si>
+    <t>Кадиевская 42</t>
+  </si>
+  <si>
+    <t>Каменогорская 16</t>
+  </si>
+  <si>
+    <t>Каменская 41</t>
+  </si>
+  <si>
+    <t>Камышовая 38</t>
+  </si>
+  <si>
+    <t>Карельская 10</t>
+  </si>
+  <si>
+    <t>Карпенко 37</t>
+  </si>
+  <si>
+    <t>Катерная 48</t>
+  </si>
+  <si>
+    <t>Каширская 10</t>
+  </si>
+  <si>
+    <t>Коммунистическая 4</t>
+  </si>
+  <si>
+    <t>Коммуны 19</t>
+  </si>
+  <si>
+    <t>Комсомольская 42</t>
+  </si>
+  <si>
+    <t>Копейское 42</t>
+  </si>
+  <si>
+    <t>Короленко 14</t>
+  </si>
+  <si>
+    <t>Корундовая 31</t>
+  </si>
+  <si>
+    <t>Косарева 45</t>
+  </si>
+  <si>
+    <t>Костромская 37</t>
+  </si>
+  <si>
+    <t>Котина 24</t>
+  </si>
+  <si>
+    <t>Кошевого 4</t>
+  </si>
+  <si>
+    <t>Красная 30</t>
+  </si>
+  <si>
+    <t>Красноармейская 16</t>
+  </si>
+  <si>
+    <t>Красного Урала 21</t>
+  </si>
+  <si>
+    <t>Краснознаменная 15</t>
+  </si>
+  <si>
+    <t>Краснокамская 11</t>
+  </si>
+  <si>
+    <t>Краснооктябрьская 40</t>
+  </si>
+  <si>
+    <t>Красносельская 15</t>
+  </si>
+  <si>
+    <t>Красноуфимская 34</t>
+  </si>
+  <si>
+    <t>Краснофлотская 22</t>
+  </si>
+  <si>
+    <t>Ленина 15</t>
+  </si>
+  <si>
+    <t>Ленинградская 45</t>
+  </si>
+  <si>
+    <t>Лермонтова 15</t>
+  </si>
+  <si>
+    <t>Лесопарковая 11</t>
+  </si>
+  <si>
+    <t>Липецкая 5</t>
+  </si>
+  <si>
+    <t>Литейная 3</t>
+  </si>
+  <si>
+    <t>Литовская 31</t>
+  </si>
+  <si>
+    <t>Ломоносова 23</t>
+  </si>
+  <si>
+    <t>Луганская 35</t>
+  </si>
+  <si>
+    <t>Луначарского 49</t>
+  </si>
+  <si>
+    <t>Лунная 11</t>
+  </si>
+  <si>
+    <t>Лучевой 37</t>
+  </si>
+  <si>
+    <t>Львовская 5</t>
+  </si>
+  <si>
+    <t>Люблинская 15</t>
+  </si>
+  <si>
+    <t>Магнитогорская 18</t>
+  </si>
+  <si>
+    <t>Майкова 12</t>
+  </si>
+  <si>
+    <t>Макарова 9</t>
+  </si>
+  <si>
+    <t>Малиновая 26</t>
+  </si>
+  <si>
+    <t>Мамина 15</t>
+  </si>
+  <si>
+    <t>Марата 37</t>
+  </si>
+  <si>
+    <t>Марченко 12</t>
+  </si>
+  <si>
+    <t>Мира 50</t>
+  </si>
+  <si>
+    <t>Молодогвардейцев 29</t>
+  </si>
+  <si>
+    <t>Монакова 18</t>
+  </si>
+  <si>
+    <t>Мопра 36</t>
+  </si>
+  <si>
+    <t>Морозова 27</t>
+  </si>
+  <si>
+    <t>Московская 40</t>
+  </si>
+  <si>
+    <t>Нахимова 15</t>
+  </si>
+  <si>
+    <t>Национальная 35</t>
+  </si>
+  <si>
+    <t>Новозаводская 26</t>
+  </si>
+  <si>
+    <t>Новороссийская 2</t>
   </si>
 </sst>
 </file>
@@ -586,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -902,6 +1280,1610 @@
         <v>64</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
+        <v>141</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" t="s">
+        <v>143</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" t="s">
+        <v>144</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" t="s">
+        <v>148</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" t="s">
+        <v>150</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" t="s">
+        <v>152</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" t="s">
+        <v>153</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" t="s">
+        <v>154</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>47</v>
+      </c>
+      <c r="B101" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" t="s">
+        <v>155</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>156</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>158</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>159</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>160</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" t="s">
+        <v>163</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>75</v>
+      </c>
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" t="s">
+        <v>164</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" t="s">
+        <v>165</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>80</v>
+      </c>
+      <c r="B112" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" t="s">
+        <v>166</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>82</v>
+      </c>
+      <c r="B113" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" t="s">
+        <v>167</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>65</v>
+      </c>
+      <c r="B114" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" t="s">
+        <v>168</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" t="s">
+        <v>169</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" t="s">
+        <v>170</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" t="s">
+        <v>171</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>51</v>
+      </c>
+      <c r="C118" t="s">
+        <v>172</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>54</v>
+      </c>
+      <c r="C119" t="s">
+        <v>173</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120" t="s">
+        <v>174</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" t="s">
+        <v>175</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>26</v>
+      </c>
+      <c r="B122" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>29</v>
+      </c>
+      <c r="B123" t="s">
+        <v>67</v>
+      </c>
+      <c r="C123" t="s">
+        <v>177</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C124" t="s">
+        <v>178</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>35</v>
+      </c>
+      <c r="B125" t="s">
+        <v>73</v>
+      </c>
+      <c r="C125" t="s">
+        <v>179</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>38</v>
+      </c>
+      <c r="B126" t="s">
+        <v>76</v>
+      </c>
+      <c r="C126" t="s">
+        <v>180</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>41</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>181</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>182</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>47</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>183</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>184</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>53</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" t="s">
+        <v>185</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>56</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>186</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>59</v>
+      </c>
+      <c r="B133" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" t="s">
+        <v>187</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>62</v>
+      </c>
+      <c r="B134" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" t="s">
+        <v>188</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>66</v>
+      </c>
+      <c r="B135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" t="s">
+        <v>189</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>69</v>
+      </c>
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" t="s">
+        <v>190</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>72</v>
+      </c>
+      <c r="B137" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" t="s">
+        <v>191</v>
+      </c>
+      <c r="D137">
         <v>1</v>
       </c>
     </row>
